--- a/MTGO_Data/Modern/2021-02-17_2021-03-08/Major Events Top32/Results_as_csv/2021-02-17-2021-03-08_DF_Tiers_Lists.xlsx
+++ b/MTGO_Data/Modern/2021-02-17_2021-03-08/Major Events Top32/Results_as_csv/2021-02-17-2021-03-08_DF_Tiers_Lists.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>X</t>
   </si>
@@ -50,16 +50,16 @@
     <t>Dredge - Amulet Titan - Hammer Time - Eldrazi Tron - Mono White Taxes - Mill</t>
   </si>
   <si>
-    <t>Stoneblade - Jund Midrange - Gruul Midrange - Esper Control - Infect - Living End - Spirits - BTL Scapeshift</t>
-  </si>
-  <si>
-    <t>Humans - Bogles - Grixis Shadow - Gifts Storm - Yawgmoth - Obosh Aggro</t>
+    <t>Stoneblade - Jund Midrange - Gruul Midrange - Esper Control - Infect - Living End - BTL Scapeshift - Spirits</t>
+  </si>
+  <si>
+    <t>Humans - Bogles - Grixis Shadow - Gifts Storm - Obosh Aggro - Yawgmoth</t>
   </si>
   <si>
     <t>Heliod Combo - Yawgmoth - Jund Midrange</t>
   </si>
   <si>
-    <t>Mono White Taxes - Amulet Titan - Spirits - Azorius Control - Shadow Prowess - Obosh Aggro - Dredge - Mill - Stoneblade - BTL Scapeshift - Green Tron - Burn</t>
+    <t>Mono White Taxes - Amulet Titan - Spirits - Azorius Control - Shadow Prowess - Obosh Aggro - Mill - Dredge - Stoneblade - BTL Scapeshift - Green Tron - Burn</t>
   </si>
   <si>
     <t>Eldrazi Tron - Humans - Living End - Hammer Time - Izzet Prowess - Gruul Midrange</t>
@@ -80,13 +80,7 @@
     <t>Infect - Bogles - Grixis Shadow - Gifts Storm</t>
   </si>
   <si>
-    <t>Heliod Combo - Azorius Control - Shadow Prowess - Izzet Prowess</t>
-  </si>
-  <si>
-    <t>Green Tron - Burn - Amulet Titan - Dredge - Mono White Taxes - Jund Midrange - Eldrazi Tron - Hammer Time - Mill - Stoneblade</t>
-  </si>
-  <si>
-    <t>Yawgmoth - Spirits - Gruul Midrange - BTL Scapeshift - Living End - Obosh Aggro - Esper Control - Humans</t>
+    <t>NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA - NA</t>
   </si>
 </sst>
 </file>
@@ -191,10 +185,10 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -211,10 +205,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -231,10 +225,10 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
